--- a/biology/Botanique/Spathiphyllum/Spathiphyllum.xlsx
+++ b/biology/Botanique/Spathiphyllum/Spathiphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spathiphyllum est un genre de plantes originaire d'Amérique du Sud. Certaines espèces sont appelées fleurs de Lune ou lys de la paix[réf. nécessaire].
 Ces plantes aiment la lumière vive, un sol neutre. Ce sont des plantes vivaces qui peuvent atteindre 1 mètre dans de bonnes conditions. Leur feuillage est persistant.
-Une étude de la NASA (en) datant de 1989 a démontré que cette plante participe à la détoxification de l'air en réduisant la teneur en benzène, formaldéhyde, trichloréthylène, xylène, toluène et ammoniac[1].
+Une étude de la NASA (en) datant de 1989 a démontré que cette plante participe à la détoxification de l'air en réduisant la teneur en benzène, formaldéhyde, trichloréthylène, xylène, toluène et ammoniac.
 Cette plante est toxique pour les chiens et les chats.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 sept. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 sept. 2011) :
 Spathiphyllum atrovirens Schott
 Spathiphyllum barbourii Croat
 Spathiphyllum bariense G.S.Bunting
